--- a/OtherData/Data/UI-Data.xlsx
+++ b/OtherData/Data/UI-Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66044a5773b13c20/Desktop/Senior Design/balancebelt/OtherData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66044a5773b13c20/Desktop/Senior Design/balancebelt/OtherData/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5634BC4A-7368-4846-96E6-6081CA5A57DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{5634BC4A-7368-4846-96E6-6081CA5A57DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4DD47469-E4FE-49FF-B86B-AF712BE5C73B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82FBA64B-8041-4863-9575-B0FA6BCC5884}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Total Number Steps</t>
   </si>
   <si>
-    <t>Average Width</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Oct</t>
+  </si>
+  <si>
+    <t>Average Width (cm)</t>
   </si>
 </sst>
 </file>
@@ -161,10 +161,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F6B656-4AC4-4159-8C18-E23A05D80C2E}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,48 +493,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -545,12 +545,12 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
@@ -564,7 +564,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -592,7 +592,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -606,7 +606,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -620,7 +620,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -634,7 +634,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
@@ -648,7 +648,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
@@ -662,7 +662,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
@@ -676,7 +676,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
@@ -705,7 +705,7 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="1"/>
@@ -772,6 +772,35 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A23:J24"/>
+    <mergeCell ref="A21:J22"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D3:K4"/>
+    <mergeCell ref="D1:K2"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -782,35 +811,6 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A23:J24"/>
-    <mergeCell ref="A21:J22"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="D3:K4"/>
-    <mergeCell ref="D1:K2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
